--- a/StructureDefinition-hiv-risk-factor.xlsx
+++ b/StructureDefinition-hiv-risk-factor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="306">
   <si>
     <t>Path</t>
   </si>
@@ -482,10 +482,7 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-risk-behavior</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -1165,7 +1162,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.96875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -2773,13 +2770,11 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2815,16 +2810,16 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>42</v>
@@ -2832,7 +2827,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2858,13 +2853,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2893,10 +2888,10 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2914,7 +2909,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -2932,28 +2927,28 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2975,14 +2970,14 @@
         <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3007,14 +3002,14 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3031,7 +3026,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3046,27 +3041,27 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3092,13 +3087,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3124,14 +3119,14 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3148,7 +3143,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3166,28 +3161,28 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3206,17 +3201,17 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3265,7 +3260,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>53</v>
@@ -3280,19 +3275,19 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>42</v>
@@ -3300,7 +3295,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3323,16 +3318,16 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3382,7 +3377,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3397,19 +3392,19 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>42</v>
@@ -3417,7 +3412,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3440,16 +3435,16 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3499,7 +3494,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3514,19 +3509,19 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
@@ -3534,7 +3529,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3557,16 +3552,16 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3616,7 +3611,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3625,7 +3620,7 @@
         <v>53</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>65</v>
@@ -3640,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -3651,7 +3646,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3674,13 +3669,13 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3731,7 +3726,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3752,13 +3747,13 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -3766,7 +3761,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3789,13 +3784,13 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3846,7 +3841,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -3870,10 +3865,10 @@
         <v>42</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>42</v>
@@ -3881,7 +3876,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3904,13 +3899,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3961,7 +3956,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -3982,13 +3977,13 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -3996,7 +3991,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4019,13 +4014,13 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4076,7 +4071,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4088,19 +4083,19 @@
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>42</v>
@@ -4111,7 +4106,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4137,10 +4132,10 @@
         <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4191,7 +4186,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4215,7 +4210,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>42</v>
@@ -4226,7 +4221,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4255,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>102</v>
@@ -4308,7 +4303,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4332,7 +4327,7 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>42</v>
@@ -4343,11 +4338,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4369,10 +4364,10 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>102</v>
@@ -4427,7 +4422,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4462,7 +4457,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4488,10 +4483,10 @@
         <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4518,14 +4513,14 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4542,7 +4537,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4551,7 +4546,7 @@
         <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>65</v>
@@ -4560,13 +4555,13 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>42</v>
@@ -4577,7 +4572,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4600,13 +4595,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4657,7 +4652,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4666,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>65</v>
@@ -4681,7 +4676,7 @@
         <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>42</v>
@@ -4692,7 +4687,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4718,10 +4713,10 @@
         <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4748,14 +4743,14 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -4796,7 +4791,7 @@
         <v>42</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>42</v>
@@ -4807,7 +4802,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4830,16 +4825,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4889,7 +4884,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -4901,19 +4896,19 @@
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -4924,7 +4919,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4950,10 +4945,10 @@
         <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5004,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5028,7 +5023,7 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>42</v>
@@ -5039,7 +5034,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5068,7 +5063,7 @@
         <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>102</v>
@@ -5121,7 +5116,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5145,7 +5140,7 @@
         <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>42</v>
@@ -5156,11 +5151,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5182,10 +5177,10 @@
         <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>102</v>
@@ -5240,7 +5235,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5275,7 +5270,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5301,10 +5296,10 @@
         <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5331,14 +5326,14 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5355,7 +5350,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5364,25 +5359,25 @@
         <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5390,7 +5385,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5413,13 +5408,13 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5470,7 +5465,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5479,7 +5474,7 @@
         <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>65</v>
@@ -5494,10 +5489,10 @@
         <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5505,7 +5500,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5528,13 +5523,13 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5585,7 +5580,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5600,16 +5595,16 @@
         <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>42</v>
